--- a/src/Presentation/CTM.Win/DataTemplate/Delivery/Founder_N.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/Delivery/Founder_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubRepo\CTM\CTM.Win\DataImportTemplate\Delivery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\ncCTM\src\Presentation\CTM.Win\DataTemplate\Delivery\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>成交日期</t>
   </si>
@@ -78,27 +78,30 @@
     <t>交易市场</t>
   </si>
   <si>
-    <t>象屿股份</t>
-  </si>
-  <si>
     <t>证券买入</t>
   </si>
   <si>
-    <t>A163813197</t>
-  </si>
-  <si>
-    <t>上海Ａ股</t>
+    <t>手续费</t>
+  </si>
+  <si>
+    <t>帝王洁具</t>
+  </si>
+  <si>
+    <t>深圳Ａ股</t>
+  </si>
+  <si>
+    <t>证券卖出</t>
   </si>
   <si>
     <t>交易类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>波段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -471,7 +474,7 @@
     <col min="16" max="16" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,257 +509,230 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
-        <v>23</v>
+      <c r="U1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>20160602</v>
+        <v>20170119</v>
       </c>
       <c r="B2" s="1">
-        <v>0.61282407407407413</v>
+        <v>0.62045138888888884</v>
       </c>
       <c r="C2">
-        <v>600057</v>
+        <v>2798</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
       <c r="F2">
-        <v>100000</v>
+        <v>10900</v>
       </c>
       <c r="G2">
-        <v>8341237</v>
+        <v>101000008814923</v>
       </c>
       <c r="H2">
-        <v>10.5</v>
+        <v>50.57</v>
       </c>
       <c r="I2">
-        <v>1050000</v>
+        <v>551213</v>
       </c>
       <c r="J2">
-        <v>100000</v>
+        <v>28500</v>
       </c>
       <c r="K2">
-        <v>-1050231.03</v>
+        <v>-551323.24</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>110.24</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>770810.57</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1692</v>
-      </c>
-      <c r="P2" t="s">
+        <v>1045293.1</v>
+      </c>
+      <c r="P2">
+        <v>1888</v>
+      </c>
+      <c r="Q2">
+        <v>175111924</v>
+      </c>
+      <c r="R2">
+        <v>110.24</v>
+      </c>
+      <c r="S2">
+        <v>11.02</v>
+      </c>
+      <c r="T2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>20170119</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.62246527777777783</v>
+      </c>
+      <c r="C3">
+        <v>2798</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="Q2">
-        <v>210</v>
-      </c>
-      <c r="R2">
-        <v>21.03</v>
-      </c>
-      <c r="S2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>20160603</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.60607638888888882</v>
-      </c>
-      <c r="C3">
-        <v>600057</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
       <c r="F3">
-        <v>3600</v>
+        <v>9300</v>
       </c>
       <c r="G3">
-        <v>8707527</v>
+        <v>101000009028821</v>
       </c>
       <c r="H3">
-        <v>10.42</v>
+        <v>50.631</v>
       </c>
       <c r="I3">
-        <v>37512</v>
+        <v>470868</v>
       </c>
       <c r="J3">
-        <v>103600</v>
+        <v>37800</v>
       </c>
       <c r="K3">
-        <v>-37520.25</v>
+        <v>-470962.17</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>94.17</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1422160.18</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1765</v>
-      </c>
-      <c r="P3" t="s">
+        <v>574330.93000000005</v>
+      </c>
+      <c r="P3">
+        <v>1921</v>
+      </c>
+      <c r="Q3">
+        <v>175111924</v>
+      </c>
+      <c r="R3">
+        <v>94.17</v>
+      </c>
+      <c r="S3">
+        <v>9.41</v>
+      </c>
+      <c r="T3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>20170120</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.4546412037037037</v>
+      </c>
+      <c r="C4">
+        <v>2798</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="Q3">
-        <v>7.5</v>
-      </c>
-      <c r="R3">
-        <v>0.75</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>-7800</v>
+      </c>
+      <c r="G4">
+        <v>104000004632812</v>
+      </c>
+      <c r="H4">
+        <v>51.41</v>
+      </c>
+      <c r="I4">
+        <v>400998</v>
+      </c>
+      <c r="J4">
+        <v>30000</v>
+      </c>
+      <c r="K4">
+        <v>400516.8</v>
+      </c>
+      <c r="L4">
+        <v>80.2</v>
+      </c>
+      <c r="M4">
+        <v>401</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>974847.73</v>
+      </c>
+      <c r="P4">
+        <v>225</v>
+      </c>
+      <c r="Q4">
+        <v>175111924</v>
+      </c>
+      <c r="R4">
+        <v>80.2</v>
+      </c>
+      <c r="S4">
+        <v>8.02</v>
+      </c>
+      <c r="T4" t="s">
         <v>22</v>
       </c>
-      <c r="T3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>20160603</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.60936342592592596</v>
-      </c>
-      <c r="C4">
-        <v>600057</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>8000</v>
-      </c>
-      <c r="G4">
-        <v>8892714</v>
-      </c>
-      <c r="H4">
-        <v>10.445</v>
-      </c>
-      <c r="I4">
-        <v>83561</v>
-      </c>
-      <c r="J4">
-        <v>111600</v>
-      </c>
-      <c r="K4">
-        <v>-83579.39</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1338580.79</v>
-      </c>
-      <c r="O4">
-        <v>1859</v>
-      </c>
-      <c r="P4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4">
-        <v>16.71</v>
-      </c>
-      <c r="R4">
-        <v>1.68</v>
-      </c>
-      <c r="S4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="1"/>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
